--- a/server/LISTAS/mi/FRATACHO PINO.xlsx
+++ b/server/LISTAS/mi/FRATACHO PINO.xlsx
@@ -750,7 +750,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/mi/FRATACHO PINO.xlsx
+++ b/server/LISTAS/mi/FRATACHO PINO.xlsx
@@ -750,7 +750,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/mi/FRATACHO PINO.xlsx
+++ b/server/LISTAS/mi/FRATACHO PINO.xlsx
@@ -750,7 +750,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="C33" s="23" t="n"/>
       <c r="D33" s="15" t="n">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="E33" s="3" t="n"/>
       <c r="F33" s="16" t="n"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="C34" s="23" t="n"/>
       <c r="D34" s="17" t="n">
-        <v>296.4</v>
+        <v>393</v>
       </c>
       <c r="E34" s="3" t="n"/>
       <c r="F34" s="16" t="n"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="C35" s="23" t="n"/>
       <c r="D35" s="17" t="n">
-        <v>321.1</v>
+        <v>424</v>
       </c>
       <c r="E35" s="3" t="n"/>
       <c r="F35" s="16" t="n"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="C36" s="23" t="n"/>
       <c r="D36" s="17" t="n">
-        <v>351</v>
+        <v>465</v>
       </c>
       <c r="E36" s="3" t="n"/>
       <c r="F36" s="16" t="n"/>
@@ -982,19 +982,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/FRATACHO PINO.xlsx
+++ b/server/LISTAS/mi/FRATACHO PINO.xlsx
@@ -750,7 +750,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/mi/FRATACHO PINO.xlsx
+++ b/server/LISTAS/mi/FRATACHO PINO.xlsx
@@ -750,7 +750,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="C33" s="23" t="n"/>
       <c r="D33" s="15" t="n">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="E33" s="3" t="n"/>
       <c r="F33" s="16" t="n"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="C34" s="23" t="n"/>
       <c r="D34" s="17" t="n">
-        <v>393</v>
+        <v>296.4</v>
       </c>
       <c r="E34" s="3" t="n"/>
       <c r="F34" s="16" t="n"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="C35" s="23" t="n"/>
       <c r="D35" s="17" t="n">
-        <v>424</v>
+        <v>321.1</v>
       </c>
       <c r="E35" s="3" t="n"/>
       <c r="F35" s="16" t="n"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="C36" s="23" t="n"/>
       <c r="D36" s="17" t="n">
-        <v>465</v>
+        <v>351</v>
       </c>
       <c r="E36" s="3" t="n"/>
       <c r="F36" s="16" t="n"/>
@@ -982,19 +982,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/FRATACHO PINO.xlsx
+++ b/server/LISTAS/mi/FRATACHO PINO.xlsx
@@ -750,7 +750,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -982,19 +982,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/FRATACHO PINO.xlsx
+++ b/server/LISTAS/mi/FRATACHO PINO.xlsx
@@ -750,7 +750,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -982,19 +982,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/FRATACHO PINO.xlsx
+++ b/server/LISTAS/mi/FRATACHO PINO.xlsx
@@ -750,7 +750,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -982,19 +982,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/FRATACHO PINO.xlsx
+++ b/server/LISTAS/mi/FRATACHO PINO.xlsx
@@ -750,7 +750,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="C33" s="23" t="n"/>
       <c r="D33" s="15" t="n">
-        <v>260</v>
+        <v>462</v>
       </c>
       <c r="E33" s="3" t="n"/>
       <c r="F33" s="16" t="n"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="C34" s="23" t="n"/>
       <c r="D34" s="17" t="n">
-        <v>296.4</v>
+        <v>526</v>
       </c>
       <c r="E34" s="3" t="n"/>
       <c r="F34" s="16" t="n"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="C35" s="23" t="n"/>
       <c r="D35" s="17" t="n">
-        <v>321.1</v>
+        <v>568</v>
       </c>
       <c r="E35" s="3" t="n"/>
       <c r="F35" s="16" t="n"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="C36" s="23" t="n"/>
       <c r="D36" s="17" t="n">
-        <v>351</v>
+        <v>622</v>
       </c>
       <c r="E36" s="3" t="n"/>
       <c r="F36" s="16" t="n"/>
@@ -982,19 +982,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
